--- a/Assignment08/Src/Top5TransactionsByLoyaltyNumber.xlsx
+++ b/Assignment08/Src/Top5TransactionsByLoyaltyNumber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicomp\Google Drive\Spring 2020 IS1040 Python\Week10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapienac.UCCOB\OneDrive - University of Cincinnati\Spring 2020\IS 4010\Module 12\rapienac_assignment08\IS4010Assignment08\Assignment08\Src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D4FB622-6B63-4947-B13F-325DA0E2F42C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="14_{99DA942B-5A40-407C-9602-F594DA6E2292}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{DFFF3282-A68F-42B8-8B0F-0936F669519B}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="945" windowWidth="21600" windowHeight="14475" xr2:uid="{DB44CE58-C33F-4013-9926-DD21F362F31E}"/>
   </bookViews>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>138       </t>
   </si>
@@ -48,6 +40,15 @@
   </si>
   <si>
     <t>24        </t>
+  </si>
+  <si>
+    <t>Loyalty Number</t>
+  </si>
+  <si>
+    <t>Total Transactions</t>
+  </si>
+  <si>
+    <t>Date of Issue</t>
   </si>
 </sst>
 </file>
@@ -83,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -91,6 +92,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,73 +408,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60E24E1-133D-44BA-93C6-D5B96C140875}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE(A1, " ", C1)</f>
+        <v>Loyalty Number Date of Issue</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B2" s="1">
         <v>87495</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C2" s="2">
         <v>39572</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="3" t="str">
+        <f>CONCATENATE(A2, " ",TEXT(C2,"m/d/yyyy"))</f>
+        <v>138        5/4/2008</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>87433</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>39523</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D6" si="0">CONCATENATE(A3, " ",TEXT(C3,"m/d/yyyy"))</f>
+        <v>43.2       3/16/2008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>87324</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>39522</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>42.5       3/15/2008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>87299</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>39511</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>34         3/4/2008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>87281</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>39501</v>
       </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>24         2/23/2008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>